--- a/state_results/Rivers/MangarangioraatOrmondvilleTeUriRd_6a973204a4.xlsx
+++ b/state_results/Rivers/MangarangioraatOrmondvilleTeUriRd_6a973204a4.xlsx
@@ -1550,13 +1550,13 @@
         <v>1.9</v>
       </c>
       <c r="G14" t="n">
-        <v>1.96688040334069</v>
+        <v>1.98831512880714</v>
       </c>
       <c r="H14" t="n">
         <v>6.55</v>
       </c>
       <c r="I14" t="n">
-        <v>3.09539</v>
+        <v>3.63554</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -2611,13 +2611,13 @@
         <v>1.8</v>
       </c>
       <c r="G27" t="n">
-        <v>1.95366731442476</v>
+        <v>1.97161266597807</v>
       </c>
       <c r="H27" t="n">
         <v>6.55</v>
       </c>
       <c r="I27" t="n">
-        <v>3.02269</v>
+        <v>3.29277</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>

--- a/state_results/Rivers/MangarangioraatOrmondvilleTeUriRd_6a973204a4.xlsx
+++ b/state_results/Rivers/MangarangioraatOrmondvilleTeUriRd_6a973204a4.xlsx
@@ -675,7 +675,7 @@
         <v>0.06765</v>
       </c>
       <c r="L2">
-        <v>0.041</v>
+        <v>0.044</v>
       </c>
       <c r="M2">
         <v>0.05078</v>
@@ -734,7 +734,7 @@
         <v>0.06765</v>
       </c>
       <c r="L3">
-        <v>0.041</v>
+        <v>0.044</v>
       </c>
       <c r="M3">
         <v>0.05078</v>
@@ -799,7 +799,7 @@
         <v>60.6060606060606</v>
       </c>
       <c r="L4">
-        <v>587</v>
+        <v>310</v>
       </c>
       <c r="M4">
         <v>967.14</v>
@@ -864,7 +864,7 @@
         <v>60.6060606060606</v>
       </c>
       <c r="L5">
-        <v>587</v>
+        <v>310</v>
       </c>
       <c r="M5">
         <v>967.14</v>
@@ -929,7 +929,7 @@
         <v>60.6060606060606</v>
       </c>
       <c r="L6">
-        <v>587</v>
+        <v>310</v>
       </c>
       <c r="M6">
         <v>967.14</v>
@@ -994,7 +994,7 @@
         <v>60.6060606060606</v>
       </c>
       <c r="L7">
-        <v>587</v>
+        <v>310</v>
       </c>
       <c r="M7">
         <v>967.14</v>
@@ -1053,7 +1053,7 @@
         <v>0.10816</v>
       </c>
       <c r="L8">
-        <v>0.008619999999999999</v>
+        <v>0.01138</v>
       </c>
       <c r="M8">
         <v>0.04313</v>
@@ -1112,7 +1112,7 @@
         <v>0.10816</v>
       </c>
       <c r="L9">
-        <v>0.008619999999999999</v>
+        <v>0.01138</v>
       </c>
       <c r="M9">
         <v>0.04313</v>
@@ -1171,7 +1171,7 @@
         <v>1.685</v>
       </c>
       <c r="L10">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="M10">
         <v>1.4045</v>
@@ -1230,7 +1230,7 @@
         <v>1.685</v>
       </c>
       <c r="L11">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="M11">
         <v>1.4045</v>
@@ -1286,7 +1286,7 @@
         <v>1.7304</v>
       </c>
       <c r="L12">
-        <v>0.149</v>
+        <v>0.23645</v>
       </c>
       <c r="M12">
         <v>1.46148</v>
@@ -1342,7 +1342,7 @@
         <v>1.7304</v>
       </c>
       <c r="L13">
-        <v>0.149</v>
+        <v>0.23645</v>
       </c>
       <c r="M13">
         <v>1.46148</v>
@@ -1392,16 +1392,16 @@
         <v>1.9</v>
       </c>
       <c r="G14">
-        <v>1.96685678531798</v>
+        <v>1.9899632853202</v>
       </c>
       <c r="H14">
         <v>6.55</v>
       </c>
       <c r="I14">
-        <v>3.09479</v>
+        <v>3.67707</v>
       </c>
       <c r="L14">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="M14">
         <v>2.645</v>
@@ -1460,7 +1460,7 @@
         <v>0.06925000000000001</v>
       </c>
       <c r="L15">
-        <v>0.041</v>
+        <v>0.044</v>
       </c>
       <c r="M15">
         <v>0.05185</v>
@@ -1519,7 +1519,7 @@
         <v>0.06925000000000001</v>
       </c>
       <c r="L16">
-        <v>0.041</v>
+        <v>0.044</v>
       </c>
       <c r="M16">
         <v>0.05185</v>
@@ -1584,7 +1584,7 @@
         <v>57.7777777777778</v>
       </c>
       <c r="L17">
-        <v>560</v>
+        <v>510</v>
       </c>
       <c r="M17">
         <v>951.65</v>
@@ -1649,7 +1649,7 @@
         <v>57.7777777777778</v>
       </c>
       <c r="L18">
-        <v>560</v>
+        <v>510</v>
       </c>
       <c r="M18">
         <v>951.65</v>
@@ -1714,7 +1714,7 @@
         <v>57.7777777777778</v>
       </c>
       <c r="L19">
-        <v>560</v>
+        <v>510</v>
       </c>
       <c r="M19">
         <v>951.65</v>
@@ -1779,7 +1779,7 @@
         <v>57.7777777777778</v>
       </c>
       <c r="L20">
-        <v>560</v>
+        <v>510</v>
       </c>
       <c r="M20">
         <v>951.65</v>
@@ -1838,7 +1838,7 @@
         <v>0.09157</v>
       </c>
       <c r="L21">
-        <v>0.00144</v>
+        <v>0.00414</v>
       </c>
       <c r="M21">
         <v>0.03347</v>
@@ -1897,7 +1897,7 @@
         <v>0.09157</v>
       </c>
       <c r="L22">
-        <v>0.00144</v>
+        <v>0.00414</v>
       </c>
       <c r="M22">
         <v>0.03347</v>
@@ -1956,7 +1956,7 @@
         <v>1.625</v>
       </c>
       <c r="L23">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="M23">
         <v>1.35024</v>
@@ -2015,7 +2015,7 @@
         <v>1.625</v>
       </c>
       <c r="L24">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="M24">
         <v>1.35024</v>
@@ -2071,7 +2071,7 @@
         <v>1.6968</v>
       </c>
       <c r="L25">
-        <v>0.1619</v>
+        <v>0.23645</v>
       </c>
       <c r="M25">
         <v>1.3912</v>
@@ -2127,7 +2127,7 @@
         <v>1.6968</v>
       </c>
       <c r="L26">
-        <v>0.1619</v>
+        <v>0.23645</v>
       </c>
       <c r="M26">
         <v>1.3912</v>
@@ -2177,16 +2177,16 @@
         <v>1.8</v>
       </c>
       <c r="G27">
-        <v>1.95364754119645</v>
+        <v>1.9729925179425</v>
       </c>
       <c r="H27">
         <v>6.55</v>
       </c>
       <c r="I27">
-        <v>3.0224</v>
+        <v>3.31354</v>
       </c>
       <c r="L27">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="M27">
         <v>2.5095</v>
@@ -2245,7 +2245,7 @@
         <v>0.06965</v>
       </c>
       <c r="L28">
-        <v>0.044</v>
+        <v>0.045</v>
       </c>
       <c r="M28">
         <v>0.05524</v>
@@ -2304,7 +2304,7 @@
         <v>0.06965</v>
       </c>
       <c r="L29">
-        <v>0.044</v>
+        <v>0.045</v>
       </c>
       <c r="M29">
         <v>0.05524</v>
@@ -2369,7 +2369,7 @@
         <v>54.3859649122807</v>
       </c>
       <c r="L30">
-        <v>560</v>
+        <v>330</v>
       </c>
       <c r="M30">
         <v>939.4400000000001</v>
@@ -2434,7 +2434,7 @@
         <v>54.3859649122807</v>
       </c>
       <c r="L31">
-        <v>560</v>
+        <v>330</v>
       </c>
       <c r="M31">
         <v>939.4400000000001</v>
@@ -2499,7 +2499,7 @@
         <v>54.3859649122807</v>
       </c>
       <c r="L32">
-        <v>560</v>
+        <v>330</v>
       </c>
       <c r="M32">
         <v>939.4400000000001</v>
@@ -2564,7 +2564,7 @@
         <v>54.3859649122807</v>
       </c>
       <c r="L33">
-        <v>560</v>
+        <v>330</v>
       </c>
       <c r="M33">
         <v>939.4400000000001</v>
@@ -2623,7 +2623,7 @@
         <v>0.07614</v>
       </c>
       <c r="L34">
-        <v>0.00144</v>
+        <v>0.00305</v>
       </c>
       <c r="M34">
         <v>0.02811</v>
@@ -2682,7 +2682,7 @@
         <v>0.07614</v>
       </c>
       <c r="L35">
-        <v>0.00144</v>
+        <v>0.00305</v>
       </c>
       <c r="M35">
         <v>0.02811</v>
@@ -2741,7 +2741,7 @@
         <v>1.58358</v>
       </c>
       <c r="L36">
-        <v>0.1334</v>
+        <v>0.23</v>
       </c>
       <c r="M36">
         <v>1.30737</v>
@@ -2800,7 +2800,7 @@
         <v>1.58358</v>
       </c>
       <c r="L37">
-        <v>0.1334</v>
+        <v>0.23</v>
       </c>
       <c r="M37">
         <v>1.30737</v>
@@ -2856,7 +2856,7 @@
         <v>1.6728</v>
       </c>
       <c r="L38">
-        <v>0.1269</v>
+        <v>0.23645</v>
       </c>
       <c r="M38">
         <v>1.35082</v>
@@ -2912,7 +2912,7 @@
         <v>1.6728</v>
       </c>
       <c r="L39">
-        <v>0.1269</v>
+        <v>0.23645</v>
       </c>
       <c r="M39">
         <v>1.35082</v>
@@ -2968,7 +2968,7 @@
         <v>1.9629</v>
       </c>
       <c r="L40">
-        <v>0.445</v>
+        <v>0.515</v>
       </c>
       <c r="M40">
         <v>1.69297</v>
@@ -3024,7 +3024,7 @@
         <v>1.9629</v>
       </c>
       <c r="L41">
-        <v>0.445</v>
+        <v>0.515</v>
       </c>
       <c r="M41">
         <v>1.69297</v>
@@ -3080,7 +3080,7 @@
         <v>0.09520000000000001</v>
       </c>
       <c r="L42">
-        <v>0.064</v>
+        <v>0.062</v>
       </c>
       <c r="M42">
         <v>0.07462000000000001</v>
@@ -3136,7 +3136,7 @@
         <v>0.09520000000000001</v>
       </c>
       <c r="L43">
-        <v>0.064</v>
+        <v>0.062</v>
       </c>
       <c r="M43">
         <v>0.07462000000000001</v>
@@ -3195,7 +3195,7 @@
         <v>2.84</v>
       </c>
       <c r="L44">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="M44">
         <v>2.5</v>
@@ -3254,7 +3254,7 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="L45">
-        <v>0.0475</v>
+        <v>0.0485</v>
       </c>
       <c r="M45">
         <v>0.0593</v>
@@ -3313,7 +3313,7 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="L46">
-        <v>0.0475</v>
+        <v>0.0485</v>
       </c>
       <c r="M46">
         <v>0.0593</v>
@@ -3378,7 +3378,7 @@
         <v>53.3333333333333</v>
       </c>
       <c r="L47">
-        <v>555</v>
+        <v>500</v>
       </c>
       <c r="M47">
         <v>836</v>
@@ -3443,7 +3443,7 @@
         <v>53.3333333333333</v>
       </c>
       <c r="L48">
-        <v>555</v>
+        <v>500</v>
       </c>
       <c r="M48">
         <v>836</v>
@@ -3508,7 +3508,7 @@
         <v>53.3333333333333</v>
       </c>
       <c r="L49">
-        <v>555</v>
+        <v>500</v>
       </c>
       <c r="M49">
         <v>836</v>
@@ -3573,7 +3573,7 @@
         <v>53.3333333333333</v>
       </c>
       <c r="L50">
-        <v>555</v>
+        <v>500</v>
       </c>
       <c r="M50">
         <v>836</v>
@@ -3750,7 +3750,7 @@
         <v>1.57655</v>
       </c>
       <c r="L53">
-        <v>0.1162</v>
+        <v>0.24365</v>
       </c>
       <c r="M53">
         <v>1.24912</v>
@@ -3809,7 +3809,7 @@
         <v>1.57655</v>
       </c>
       <c r="L54">
-        <v>0.1162</v>
+        <v>0.24365</v>
       </c>
       <c r="M54">
         <v>1.24912</v>
@@ -3865,7 +3865,7 @@
         <v>1.6692</v>
       </c>
       <c r="L55">
-        <v>0.114</v>
+        <v>0.2679</v>
       </c>
       <c r="M55">
         <v>1.27738</v>
@@ -3921,7 +3921,7 @@
         <v>1.6692</v>
       </c>
       <c r="L56">
-        <v>0.114</v>
+        <v>0.2679</v>
       </c>
       <c r="M56">
         <v>1.27738</v>
@@ -3977,7 +3977,7 @@
         <v>1.8785</v>
       </c>
       <c r="L57">
-        <v>0.465</v>
+        <v>0.528</v>
       </c>
       <c r="M57">
         <v>1.6079</v>
@@ -4033,7 +4033,7 @@
         <v>1.8785</v>
       </c>
       <c r="L58">
-        <v>0.465</v>
+        <v>0.528</v>
       </c>
       <c r="M58">
         <v>1.6079</v>
@@ -4089,7 +4089,7 @@
         <v>0.0925</v>
       </c>
       <c r="L59">
-        <v>0.0665</v>
+        <v>0.0645</v>
       </c>
       <c r="M59">
         <v>0.0779</v>
@@ -4145,7 +4145,7 @@
         <v>0.0925</v>
       </c>
       <c r="L60">
-        <v>0.0665</v>
+        <v>0.0645</v>
       </c>
       <c r="M60">
         <v>0.0779</v>
@@ -4204,7 +4204,7 @@
         <v>2.665</v>
       </c>
       <c r="L61">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="M61">
         <v>2.187</v>
@@ -4263,7 +4263,7 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="L62">
-        <v>0.058</v>
+        <v>0.054</v>
       </c>
       <c r="M62">
         <v>0.061</v>
@@ -4322,7 +4322,7 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="L63">
-        <v>0.058</v>
+        <v>0.054</v>
       </c>
       <c r="M63">
         <v>0.061</v>
@@ -4387,7 +4387,7 @@
         <v>53.3333333333333</v>
       </c>
       <c r="L64">
-        <v>504</v>
+        <v>430</v>
       </c>
       <c r="M64">
         <v>776.9</v>
@@ -4452,7 +4452,7 @@
         <v>53.3333333333333</v>
       </c>
       <c r="L65">
-        <v>504</v>
+        <v>430</v>
       </c>
       <c r="M65">
         <v>776.9</v>
@@ -4517,7 +4517,7 @@
         <v>53.3333333333333</v>
       </c>
       <c r="L66">
-        <v>504</v>
+        <v>430</v>
       </c>
       <c r="M66">
         <v>776.9</v>
@@ -4582,7 +4582,7 @@
         <v>53.3333333333333</v>
       </c>
       <c r="L67">
-        <v>504</v>
+        <v>430</v>
       </c>
       <c r="M67">
         <v>776.9</v>
@@ -4759,7 +4759,7 @@
         <v>1.65</v>
       </c>
       <c r="L70">
-        <v>0.032</v>
+        <v>0.1483</v>
       </c>
       <c r="M70">
         <v>1.332</v>
@@ -4818,7 +4818,7 @@
         <v>1.65</v>
       </c>
       <c r="L71">
-        <v>0.032</v>
+        <v>0.1483</v>
       </c>
       <c r="M71">
         <v>1.332</v>
@@ -4874,7 +4874,7 @@
         <v>1.69</v>
       </c>
       <c r="L72">
-        <v>0.04</v>
+        <v>0.15945</v>
       </c>
       <c r="M72">
         <v>1.35855</v>
@@ -4930,7 +4930,7 @@
         <v>1.69</v>
       </c>
       <c r="L73">
-        <v>0.04</v>
+        <v>0.15945</v>
       </c>
       <c r="M73">
         <v>1.35855</v>
@@ -4986,7 +4986,7 @@
         <v>1.927</v>
       </c>
       <c r="L74">
-        <v>0.41</v>
+        <v>0.4795</v>
       </c>
       <c r="M74">
         <v>1.709</v>
@@ -5042,7 +5042,7 @@
         <v>1.927</v>
       </c>
       <c r="L75">
-        <v>0.41</v>
+        <v>0.4795</v>
       </c>
       <c r="M75">
         <v>1.709</v>
@@ -5098,7 +5098,7 @@
         <v>0.091</v>
       </c>
       <c r="L76">
-        <v>0.07099999999999999</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="M76">
         <v>0.0806</v>
@@ -5154,7 +5154,7 @@
         <v>0.091</v>
       </c>
       <c r="L77">
-        <v>0.07099999999999999</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="M77">
         <v>0.0806</v>
@@ -5213,7 +5213,7 @@
         <v>2.5</v>
       </c>
       <c r="L78">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="M78">
         <v>2.17</v>
@@ -5272,7 +5272,7 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="L79">
-        <v>0.0565</v>
+        <v>0.051</v>
       </c>
       <c r="M79">
         <v>0.0593</v>
@@ -5331,7 +5331,7 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="L80">
-        <v>0.0565</v>
+        <v>0.051</v>
       </c>
       <c r="M80">
         <v>0.0593</v>
@@ -5396,7 +5396,7 @@
         <v>50</v>
       </c>
       <c r="L81">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="M81">
         <v>915.9</v>
@@ -5461,7 +5461,7 @@
         <v>50</v>
       </c>
       <c r="L82">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="M82">
         <v>915.9</v>
@@ -5526,7 +5526,7 @@
         <v>50</v>
       </c>
       <c r="L83">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="M83">
         <v>915.9</v>
@@ -5591,7 +5591,7 @@
         <v>50</v>
       </c>
       <c r="L84">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="M84">
         <v>915.9</v>
@@ -5650,7 +5650,7 @@
         <v>0.0221</v>
       </c>
       <c r="L85">
-        <v>0.00324</v>
+        <v>0.00291</v>
       </c>
       <c r="M85">
         <v>0.01031</v>
@@ -5709,7 +5709,7 @@
         <v>0.0221</v>
       </c>
       <c r="L86">
-        <v>0.00324</v>
+        <v>0.00291</v>
       </c>
       <c r="M86">
         <v>0.01031</v>
@@ -5768,7 +5768,7 @@
         <v>1.675</v>
       </c>
       <c r="L87">
-        <v>0.105</v>
+        <v>0.1558</v>
       </c>
       <c r="M87">
         <v>1.332</v>
@@ -5827,7 +5827,7 @@
         <v>1.675</v>
       </c>
       <c r="L88">
-        <v>0.105</v>
+        <v>0.1558</v>
       </c>
       <c r="M88">
         <v>1.332</v>
@@ -5883,7 +5883,7 @@
         <v>1.685</v>
       </c>
       <c r="L89">
-        <v>0.115</v>
+        <v>0.1625</v>
       </c>
       <c r="M89">
         <v>1.35855</v>
@@ -5939,7 +5939,7 @@
         <v>1.685</v>
       </c>
       <c r="L90">
-        <v>0.115</v>
+        <v>0.1625</v>
       </c>
       <c r="M90">
         <v>1.35855</v>
@@ -5995,7 +5995,7 @@
         <v>2.165</v>
       </c>
       <c r="L91">
-        <v>0.41</v>
+        <v>0.4795</v>
       </c>
       <c r="M91">
         <v>1.757</v>
@@ -6051,7 +6051,7 @@
         <v>2.165</v>
       </c>
       <c r="L92">
-        <v>0.41</v>
+        <v>0.4795</v>
       </c>
       <c r="M92">
         <v>1.757</v>
@@ -6107,7 +6107,7 @@
         <v>0.091</v>
       </c>
       <c r="L93">
-        <v>0.07099999999999999</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="M93">
         <v>0.0806</v>
@@ -6163,7 +6163,7 @@
         <v>0.091</v>
       </c>
       <c r="L94">
-        <v>0.07099999999999999</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="M94">
         <v>0.0806</v>
@@ -6222,7 +6222,7 @@
         <v>2.54</v>
       </c>
       <c r="L95">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="M95">
         <v>2.218</v>
@@ -6281,7 +6281,7 @@
         <v>0.06950000000000001</v>
       </c>
       <c r="L96">
-        <v>0.054</v>
+        <v>0.05</v>
       </c>
       <c r="M96">
         <v>0.059</v>
@@ -6340,7 +6340,7 @@
         <v>0.06950000000000001</v>
       </c>
       <c r="L97">
-        <v>0.054</v>
+        <v>0.05</v>
       </c>
       <c r="M97">
         <v>0.059</v>
@@ -6405,7 +6405,7 @@
         <v>48.3333333333333</v>
       </c>
       <c r="L98">
-        <v>440</v>
+        <v>395</v>
       </c>
       <c r="M98">
         <v>830</v>
@@ -6470,7 +6470,7 @@
         <v>48.3333333333333</v>
       </c>
       <c r="L99">
-        <v>440</v>
+        <v>395</v>
       </c>
       <c r="M99">
         <v>830</v>
@@ -6535,7 +6535,7 @@
         <v>48.3333333333333</v>
       </c>
       <c r="L100">
-        <v>440</v>
+        <v>395</v>
       </c>
       <c r="M100">
         <v>830</v>
@@ -6600,7 +6600,7 @@
         <v>48.3333333333333</v>
       </c>
       <c r="L101">
-        <v>440</v>
+        <v>395</v>
       </c>
       <c r="M101">
         <v>830</v>
@@ -6659,7 +6659,7 @@
         <v>0.0284</v>
       </c>
       <c r="L102">
-        <v>0.00397</v>
+        <v>0.00389</v>
       </c>
       <c r="M102">
         <v>0.01319</v>
@@ -6718,7 +6718,7 @@
         <v>0.0284</v>
       </c>
       <c r="L103">
-        <v>0.00397</v>
+        <v>0.00389</v>
       </c>
       <c r="M103">
         <v>0.01319</v>
@@ -6777,7 +6777,7 @@
         <v>1.765</v>
       </c>
       <c r="L104">
-        <v>0.092</v>
+        <v>0.167</v>
       </c>
       <c r="M104">
         <v>1.45264</v>
@@ -6836,7 +6836,7 @@
         <v>1.765</v>
       </c>
       <c r="L105">
-        <v>0.092</v>
+        <v>0.167</v>
       </c>
       <c r="M105">
         <v>1.45264</v>
@@ -6892,7 +6892,7 @@
         <v>1.795</v>
       </c>
       <c r="L106">
-        <v>0.1025</v>
+        <v>0.1875</v>
       </c>
       <c r="M106">
         <v>1.47555</v>
@@ -6948,7 +6948,7 @@
         <v>1.795</v>
       </c>
       <c r="L107">
-        <v>0.1025</v>
+        <v>0.1875</v>
       </c>
       <c r="M107">
         <v>1.47555</v>
@@ -7004,7 +7004,7 @@
         <v>2.265</v>
       </c>
       <c r="L108">
-        <v>0.345</v>
+        <v>0.455</v>
       </c>
       <c r="M108">
         <v>1.849</v>
@@ -7060,7 +7060,7 @@
         <v>2.265</v>
       </c>
       <c r="L109">
-        <v>0.345</v>
+        <v>0.455</v>
       </c>
       <c r="M109">
         <v>1.849</v>
@@ -7116,7 +7116,7 @@
         <v>0.0935</v>
       </c>
       <c r="L110">
-        <v>0.067</v>
+        <v>0.063</v>
       </c>
       <c r="M110">
         <v>0.0779</v>
@@ -7172,7 +7172,7 @@
         <v>0.0935</v>
       </c>
       <c r="L111">
-        <v>0.067</v>
+        <v>0.063</v>
       </c>
       <c r="M111">
         <v>0.0779</v>
@@ -7231,7 +7231,7 @@
         <v>3.2</v>
       </c>
       <c r="L112">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M112">
         <v>2.5</v>
@@ -7290,7 +7290,7 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="L113">
-        <v>0.0495</v>
+        <v>0.048</v>
       </c>
       <c r="M113">
         <v>0.057</v>
@@ -7349,7 +7349,7 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="L114">
-        <v>0.0495</v>
+        <v>0.048</v>
       </c>
       <c r="M114">
         <v>0.057</v>
@@ -7414,7 +7414,7 @@
         <v>47.4576271186441</v>
       </c>
       <c r="L115">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="M115">
         <v>847</v>
@@ -7479,7 +7479,7 @@
         <v>47.4576271186441</v>
       </c>
       <c r="L116">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="M116">
         <v>847</v>
@@ -7544,7 +7544,7 @@
         <v>47.4576271186441</v>
       </c>
       <c r="L117">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="M117">
         <v>847</v>
@@ -7609,7 +7609,7 @@
         <v>47.4576271186441</v>
       </c>
       <c r="L118">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="M118">
         <v>847</v>
@@ -7668,7 +7668,7 @@
         <v>0.02978</v>
       </c>
       <c r="L119">
-        <v>0.00368</v>
+        <v>0.00389</v>
       </c>
       <c r="M119">
         <v>0.01122</v>
@@ -7727,7 +7727,7 @@
         <v>0.02978</v>
       </c>
       <c r="L120">
-        <v>0.00368</v>
+        <v>0.00389</v>
       </c>
       <c r="M120">
         <v>0.01122</v>
@@ -7786,7 +7786,7 @@
         <v>1.7665</v>
       </c>
       <c r="L121">
-        <v>0.092</v>
+        <v>0.156</v>
       </c>
       <c r="M121">
         <v>1.4541</v>
@@ -7845,7 +7845,7 @@
         <v>1.7665</v>
       </c>
       <c r="L122">
-        <v>0.092</v>
+        <v>0.156</v>
       </c>
       <c r="M122">
         <v>1.4541</v>
@@ -7901,7 +7901,7 @@
         <v>1.7985</v>
       </c>
       <c r="L123">
-        <v>0.1025</v>
+        <v>0.165</v>
       </c>
       <c r="M123">
         <v>1.47175</v>
@@ -7957,7 +7957,7 @@
         <v>1.7985</v>
       </c>
       <c r="L124">
-        <v>0.1025</v>
+        <v>0.165</v>
       </c>
       <c r="M124">
         <v>1.47175</v>
@@ -8013,7 +8013,7 @@
         <v>2.2755</v>
       </c>
       <c r="L125">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="M125">
         <v>1.8294</v>
@@ -8069,7 +8069,7 @@
         <v>2.2755</v>
       </c>
       <c r="L126">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="M126">
         <v>1.8294</v>
@@ -8125,7 +8125,7 @@
         <v>0.09365</v>
       </c>
       <c r="L127">
-        <v>0.0615</v>
+        <v>0.061</v>
       </c>
       <c r="M127">
         <v>0.076</v>
@@ -8181,7 +8181,7 @@
         <v>0.09365</v>
       </c>
       <c r="L128">
-        <v>0.0615</v>
+        <v>0.061</v>
       </c>
       <c r="M128">
         <v>0.076</v>
@@ -8240,7 +8240,7 @@
         <v>3.7375</v>
       </c>
       <c r="L129">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="M129">
         <v>2.6</v>
@@ -8299,7 +8299,7 @@
         <v>0.06155</v>
       </c>
       <c r="L130">
-        <v>0.0485</v>
+        <v>0.046</v>
       </c>
       <c r="M130">
         <v>0.05647</v>
@@ -8358,7 +8358,7 @@
         <v>0.06155</v>
       </c>
       <c r="L131">
-        <v>0.0485</v>
+        <v>0.046</v>
       </c>
       <c r="M131">
         <v>0.05647</v>
@@ -8423,7 +8423,7 @@
         <v>42.3728813559322</v>
       </c>
       <c r="L132">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="M132">
         <v>470</v>
@@ -8488,7 +8488,7 @@
         <v>42.3728813559322</v>
       </c>
       <c r="L133">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="M133">
         <v>470</v>
@@ -8553,7 +8553,7 @@
         <v>42.3728813559322</v>
       </c>
       <c r="L134">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="M134">
         <v>470</v>
@@ -8618,7 +8618,7 @@
         <v>42.3728813559322</v>
       </c>
       <c r="L135">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="M135">
         <v>470</v>
@@ -8677,7 +8677,7 @@
         <v>0.02322</v>
       </c>
       <c r="L136">
-        <v>0.00401</v>
+        <v>0.00486</v>
       </c>
       <c r="M136">
         <v>0.01086</v>
@@ -8736,7 +8736,7 @@
         <v>0.02322</v>
       </c>
       <c r="L137">
-        <v>0.00401</v>
+        <v>0.00486</v>
       </c>
       <c r="M137">
         <v>0.01086</v>
@@ -8795,7 +8795,7 @@
         <v>1.9505</v>
       </c>
       <c r="L138">
-        <v>0.078</v>
+        <v>0.114</v>
       </c>
       <c r="M138">
         <v>1.4541</v>
@@ -8854,7 +8854,7 @@
         <v>1.9505</v>
       </c>
       <c r="L139">
-        <v>0.078</v>
+        <v>0.114</v>
       </c>
       <c r="M139">
         <v>1.4541</v>
@@ -8910,7 +8910,7 @@
         <v>1.9807</v>
       </c>
       <c r="L140">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="M140">
         <v>1.47175</v>
@@ -8966,7 +8966,7 @@
         <v>1.9807</v>
       </c>
       <c r="L141">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="M141">
         <v>1.47175</v>
@@ -9022,7 +9022,7 @@
         <v>2.4745</v>
       </c>
       <c r="L142">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="M142">
         <v>1.8294</v>
@@ -9078,7 +9078,7 @@
         <v>2.4745</v>
       </c>
       <c r="L143">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="M143">
         <v>1.8294</v>
@@ -9134,7 +9134,7 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="L144">
-        <v>0.057</v>
+        <v>0.06</v>
       </c>
       <c r="M144">
         <v>0.06947</v>
@@ -9190,7 +9190,7 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="L145">
-        <v>0.057</v>
+        <v>0.06</v>
       </c>
       <c r="M145">
         <v>0.06947</v>
@@ -9249,7 +9249,7 @@
         <v>3.7625</v>
       </c>
       <c r="L146">
-        <v>2.5</v>
+        <v>2.275</v>
       </c>
       <c r="M146">
         <v>2.617</v>
@@ -9308,7 +9308,7 @@
         <v>0.059</v>
       </c>
       <c r="L147">
-        <v>0.0445</v>
+        <v>0.043</v>
       </c>
       <c r="M147">
         <v>0.05247</v>
@@ -9367,7 +9367,7 @@
         <v>0.059</v>
       </c>
       <c r="L148">
-        <v>0.0445</v>
+        <v>0.043</v>
       </c>
       <c r="M148">
         <v>0.05247</v>
@@ -9417,7 +9417,7 @@
         <v>260</v>
       </c>
       <c r="G149">
-        <v>897.033898305085</v>
+        <v>897.023728813559</v>
       </c>
       <c r="H149">
         <v>18000</v>
@@ -9432,7 +9432,7 @@
         <v>49.1525423728814</v>
       </c>
       <c r="L149">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="M149">
         <v>1015.2</v>
@@ -9482,7 +9482,7 @@
         <v>260</v>
       </c>
       <c r="G150">
-        <v>897.033898305085</v>
+        <v>897.023728813559</v>
       </c>
       <c r="H150">
         <v>18000</v>
@@ -9497,7 +9497,7 @@
         <v>49.1525423728814</v>
       </c>
       <c r="L150">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="M150">
         <v>1015.2</v>
@@ -9547,7 +9547,7 @@
         <v>260</v>
       </c>
       <c r="G151">
-        <v>897.033898305085</v>
+        <v>897.023728813559</v>
       </c>
       <c r="H151">
         <v>18000</v>
@@ -9562,7 +9562,7 @@
         <v>49.1525423728814</v>
       </c>
       <c r="L151">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="M151">
         <v>1015.2</v>
@@ -9612,7 +9612,7 @@
         <v>260</v>
       </c>
       <c r="G152">
-        <v>897.033898305085</v>
+        <v>897.023728813559</v>
       </c>
       <c r="H152">
         <v>18000</v>
@@ -9627,7 +9627,7 @@
         <v>49.1525423728814</v>
       </c>
       <c r="L152">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="M152">
         <v>1015.2</v>
@@ -9686,7 +9686,7 @@
         <v>0.0321</v>
       </c>
       <c r="L153">
-        <v>0.00568</v>
+        <v>0.00537</v>
       </c>
       <c r="M153">
         <v>0.0131</v>
@@ -9745,7 +9745,7 @@
         <v>0.0321</v>
       </c>
       <c r="L154">
-        <v>0.00568</v>
+        <v>0.00537</v>
       </c>
       <c r="M154">
         <v>0.0131</v>
@@ -9804,7 +9804,7 @@
         <v>1.7455</v>
       </c>
       <c r="L155">
-        <v>0.07099999999999999</v>
+        <v>0.114</v>
       </c>
       <c r="M155">
         <v>1.1141</v>
@@ -9863,7 +9863,7 @@
         <v>1.7455</v>
       </c>
       <c r="L156">
-        <v>0.07099999999999999</v>
+        <v>0.114</v>
       </c>
       <c r="M156">
         <v>1.1141</v>
@@ -9919,7 +9919,7 @@
         <v>1.75775</v>
       </c>
       <c r="L157">
-        <v>0.083</v>
+        <v>0.13</v>
       </c>
       <c r="M157">
         <v>1.13222</v>
@@ -9975,7 +9975,7 @@
         <v>1.75775</v>
       </c>
       <c r="L158">
-        <v>0.083</v>
+        <v>0.13</v>
       </c>
       <c r="M158">
         <v>1.13222</v>
@@ -10031,7 +10031,7 @@
         <v>2.0745</v>
       </c>
       <c r="L159">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="M159">
         <v>1.5693</v>
@@ -10087,7 +10087,7 @@
         <v>2.0745</v>
       </c>
       <c r="L160">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="M160">
         <v>1.5693</v>
@@ -10143,7 +10143,7 @@
         <v>0.1431</v>
       </c>
       <c r="L161">
-        <v>0.0565</v>
+        <v>0.057</v>
       </c>
       <c r="M161">
         <v>0.07194</v>
@@ -10199,7 +10199,7 @@
         <v>0.1431</v>
       </c>
       <c r="L162">
-        <v>0.0565</v>
+        <v>0.057</v>
       </c>
       <c r="M162">
         <v>0.07194</v>
@@ -10426,7 +10426,7 @@
         <v>230</v>
       </c>
       <c r="G166">
-        <v>606.864406779661</v>
+        <v>606.847457627119</v>
       </c>
       <c r="H166">
         <v>6931</v>
@@ -10441,7 +10441,7 @@
         <v>49.1525423728814</v>
       </c>
       <c r="L166">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="M166">
         <v>836.12</v>
@@ -10491,7 +10491,7 @@
         <v>230</v>
       </c>
       <c r="G167">
-        <v>606.864406779661</v>
+        <v>606.847457627119</v>
       </c>
       <c r="H167">
         <v>6931</v>
@@ -10506,7 +10506,7 @@
         <v>49.1525423728814</v>
       </c>
       <c r="L167">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="M167">
         <v>836.12</v>
@@ -10556,7 +10556,7 @@
         <v>230</v>
       </c>
       <c r="G168">
-        <v>606.864406779661</v>
+        <v>606.847457627119</v>
       </c>
       <c r="H168">
         <v>6931</v>
@@ -10571,7 +10571,7 @@
         <v>49.1525423728814</v>
       </c>
       <c r="L168">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="M168">
         <v>836.12</v>
@@ -10621,7 +10621,7 @@
         <v>230</v>
       </c>
       <c r="G169">
-        <v>606.864406779661</v>
+        <v>606.847457627119</v>
       </c>
       <c r="H169">
         <v>6931</v>
@@ -10636,7 +10636,7 @@
         <v>49.1525423728814</v>
       </c>
       <c r="L169">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="M169">
         <v>836.12</v>
@@ -10695,7 +10695,7 @@
         <v>0.02981</v>
       </c>
       <c r="L170">
-        <v>0.00585</v>
+        <v>0.00636</v>
       </c>
       <c r="M170">
         <v>0.01471</v>
@@ -10754,7 +10754,7 @@
         <v>0.02981</v>
       </c>
       <c r="L171">
-        <v>0.00585</v>
+        <v>0.00636</v>
       </c>
       <c r="M171">
         <v>0.01471</v>
@@ -10813,7 +10813,7 @@
         <v>1.7455</v>
       </c>
       <c r="L172">
-        <v>0.07099999999999999</v>
+        <v>0.168</v>
       </c>
       <c r="M172">
         <v>1.0876</v>
@@ -10872,7 +10872,7 @@
         <v>1.7455</v>
       </c>
       <c r="L173">
-        <v>0.07099999999999999</v>
+        <v>0.168</v>
       </c>
       <c r="M173">
         <v>1.0876</v>
@@ -10928,7 +10928,7 @@
         <v>1.75775</v>
       </c>
       <c r="L174">
-        <v>0.083</v>
+        <v>0.18</v>
       </c>
       <c r="M174">
         <v>1.13222</v>
@@ -10984,7 +10984,7 @@
         <v>1.75775</v>
       </c>
       <c r="L175">
-        <v>0.083</v>
+        <v>0.18</v>
       </c>
       <c r="M175">
         <v>1.13222</v>
@@ -11040,7 +11040,7 @@
         <v>1.9655</v>
       </c>
       <c r="L176">
-        <v>0.335</v>
+        <v>0.49</v>
       </c>
       <c r="M176">
         <v>1.5305</v>
@@ -11096,7 +11096,7 @@
         <v>1.9655</v>
       </c>
       <c r="L177">
-        <v>0.335</v>
+        <v>0.49</v>
       </c>
       <c r="M177">
         <v>1.5305</v>
@@ -11152,7 +11152,7 @@
         <v>0.1018</v>
       </c>
       <c r="L178">
-        <v>0.0535</v>
+        <v>0.055</v>
       </c>
       <c r="M178">
         <v>0.07194</v>
@@ -11208,7 +11208,7 @@
         <v>0.1018</v>
       </c>
       <c r="L179">
-        <v>0.0535</v>
+        <v>0.055</v>
       </c>
       <c r="M179">
         <v>0.07194</v>
